--- a/pidis/expdata/10006.xlsx
+++ b/pidis/expdata/10006.xlsx
@@ -1,21 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jethier/Documents/fitpack/database/pdis/expdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/pidis/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82754F5C-962D-2242-AF56-8E32105CB70A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="29140" windowHeight="16320" tabRatio="500"/>
+    <workbookView xWindow="30720" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -53,18 +63,6 @@
     <t>value</t>
   </si>
   <si>
-    <t>Apar(stat)_u</t>
-  </si>
-  <si>
-    <t>Apar(syst)</t>
-  </si>
-  <si>
-    <t>syst_c</t>
-  </si>
-  <si>
-    <t>syst_u</t>
-  </si>
-  <si>
     <t>col</t>
   </si>
   <si>
@@ -76,12 +74,24 @@
   <si>
     <t>HERMES</t>
   </si>
+  <si>
+    <t>stat_u</t>
+  </si>
+  <si>
+    <t>norm_c</t>
+  </si>
+  <si>
+    <t>syst</t>
+  </si>
+  <si>
+    <t>syst_c</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -94,6 +104,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -127,8 +143,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -139,6 +155,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -406,16 +425,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="N47" sqref="N47"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="9" width="8.83203125" style="1"/>
+    <col min="1" max="8" width="8.83203125" style="1"/>
+    <col min="9" max="9" width="12.5" style="1" customWidth="1"/>
     <col min="10" max="10" width="14.6640625" style="1" customWidth="1"/>
     <col min="12" max="1025" width="8.83203125" style="1"/>
   </cols>
@@ -446,22 +466,22 @@
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>27.6</v>
       </c>
@@ -478,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H2" s="3">
         <v>8.6E-3</v>
@@ -492,19 +512,19 @@
       <c r="J2" s="3">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="K2">
-        <f t="shared" ref="K2:K46" si="0">H2*5.2/100</f>
-        <v>4.4720000000000003E-4</v>
+      <c r="K2" s="1">
+        <f>H2*5/100</f>
+        <v>4.2999999999999999E-4</v>
       </c>
       <c r="L2" s="1">
-        <f t="shared" ref="L2:L46" si="1">MAX(J2^2-K2^2,0)</f>
+        <f>MAX(J2^2-K2^2,0)^0.5</f>
         <v>0</v>
       </c>
-      <c r="M2" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M2" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>27.6</v>
       </c>
@@ -521,10 +541,10 @@
         <v>1</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H3" s="3">
         <v>-2.3999999999999998E-3</v>
@@ -535,19 +555,19 @@
       <c r="J3" s="3">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="K3">
-        <f t="shared" si="0"/>
-        <v>-1.248E-4</v>
+      <c r="K3" s="1">
+        <f t="shared" ref="K3:K46" si="0">H3*5/100</f>
+        <v>-1.1999999999999999E-4</v>
       </c>
       <c r="L3" s="1">
-        <f t="shared" si="1"/>
-        <v>1.4442496000000001E-7</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+        <f>MAX(J3^2-K3^2,0)^0.5</f>
+        <v>3.8157568056677827E-4</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>27.6</v>
       </c>
@@ -564,10 +584,10 @@
         <v>1</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H4" s="3">
         <v>-1.2999999999999999E-3</v>
@@ -578,19 +598,19 @@
       <c r="J4" s="3">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="K4">
-        <f t="shared" si="0"/>
-        <v>-6.759999999999999E-5</v>
+      <c r="K4" s="1">
+        <f t="shared" si="0"/>
+        <v>-6.4999999999999994E-5</v>
       </c>
       <c r="L4" s="1">
-        <f t="shared" si="1"/>
-        <v>8.5430239999999988E-8</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+        <f t="shared" ref="L4:L46" si="1">MAX(J4^2-K4^2,0)^0.5</f>
+        <v>2.928736929121494E-4</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>27.6</v>
       </c>
@@ -607,10 +627,10 @@
         <v>1</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H5" s="3">
         <v>-2.3999999999999998E-3</v>
@@ -621,19 +641,19 @@
       <c r="J5" s="3">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="K5">
-        <f t="shared" si="0"/>
-        <v>-1.248E-4</v>
+      <c r="K5" s="1">
+        <f t="shared" si="0"/>
+        <v>-1.1999999999999999E-4</v>
       </c>
       <c r="L5" s="1">
         <f t="shared" si="1"/>
-        <v>1.4442496000000001E-7</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+        <v>3.8157568056677827E-4</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>27.6</v>
       </c>
@@ -650,10 +670,10 @@
         <v>1</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H6" s="3">
         <v>4.7000000000000002E-3</v>
@@ -664,19 +684,19 @@
       <c r="J6" s="3">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="K6">
-        <f t="shared" si="0"/>
-        <v>2.4440000000000003E-4</v>
+      <c r="K6" s="1">
+        <f t="shared" si="0"/>
+        <v>2.3499999999999999E-4</v>
       </c>
       <c r="L6" s="1">
         <f t="shared" si="1"/>
-        <v>1.9026863999999996E-7</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+        <v>4.4133320745214717E-4</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>27.6</v>
       </c>
@@ -693,10 +713,10 @@
         <v>2</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H7" s="3">
         <v>2.3099999999999999E-2</v>
@@ -707,19 +727,19 @@
       <c r="J7" s="3">
         <v>1.5E-3</v>
       </c>
-      <c r="K7">
-        <f t="shared" si="0"/>
-        <v>1.2012000000000001E-3</v>
+      <c r="K7" s="1">
+        <f t="shared" si="0"/>
+        <v>1.155E-3</v>
       </c>
       <c r="L7" s="1">
         <f t="shared" si="1"/>
-        <v>8.0711855999999964E-7</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+        <v>9.5706582845695636E-4</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>27.6</v>
       </c>
@@ -736,10 +756,10 @@
         <v>1</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H8" s="3">
         <v>1.2999999999999999E-3</v>
@@ -750,19 +770,19 @@
       <c r="J8" s="3">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="K8">
-        <f t="shared" si="0"/>
-        <v>6.759999999999999E-5</v>
+      <c r="K8" s="1">
+        <f t="shared" si="0"/>
+        <v>6.4999999999999994E-5</v>
       </c>
       <c r="L8" s="1">
         <f t="shared" si="1"/>
-        <v>8.5430239999999988E-8</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+        <v>2.928736929121494E-4</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>27.6</v>
       </c>
@@ -779,10 +799,10 @@
         <v>2</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H9" s="3">
         <v>-8.9999999999999993E-3</v>
@@ -793,19 +813,19 @@
       <c r="J9" s="3">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="K9">
-        <f t="shared" si="0"/>
-        <v>-4.6799999999999999E-4</v>
+      <c r="K9" s="1">
+        <f t="shared" si="0"/>
+        <v>-4.4999999999999999E-4</v>
       </c>
       <c r="L9" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M9" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>27.6</v>
       </c>
@@ -822,10 +842,10 @@
         <v>1</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H10" s="3">
         <v>5.0000000000000001E-3</v>
@@ -836,19 +856,19 @@
       <c r="J10" s="3">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="K10">
-        <f t="shared" si="0"/>
-        <v>2.6000000000000003E-4</v>
+      <c r="K10" s="1">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000001E-4</v>
       </c>
       <c r="L10" s="1">
         <f t="shared" si="1"/>
-        <v>2.2399999999999976E-8</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+        <v>1.6583123951776995E-4</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>27.6</v>
       </c>
@@ -865,10 +885,10 @@
         <v>2</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H11" s="3">
         <v>2.7000000000000001E-3</v>
@@ -879,19 +899,19 @@
       <c r="J11" s="3">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="K11">
-        <f t="shared" si="0"/>
-        <v>1.404E-4</v>
+      <c r="K11" s="1">
+        <f t="shared" si="0"/>
+        <v>1.3500000000000003E-4</v>
       </c>
       <c r="L11" s="1">
         <f t="shared" si="1"/>
-        <v>4.7028783999999996E-7</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+        <v>6.8685879189248208E-4</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>27.6</v>
       </c>
@@ -908,10 +928,10 @@
         <v>1</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H12" s="3">
         <v>-1.9E-3</v>
@@ -922,19 +942,19 @@
       <c r="J12" s="3">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="K12">
-        <f t="shared" si="0"/>
-        <v>-9.8800000000000003E-5</v>
+      <c r="K12" s="1">
+        <f t="shared" si="0"/>
+        <v>-9.4999999999999992E-5</v>
       </c>
       <c r="L12" s="1">
         <f t="shared" si="1"/>
-        <v>6.3023856000000003E-7</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+        <v>7.9433934813780941E-4</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>27.6</v>
       </c>
@@ -951,10 +971,10 @@
         <v>2</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H13" s="3">
         <v>1.24E-2</v>
@@ -965,19 +985,19 @@
       <c r="J13" s="3">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="K13">
-        <f t="shared" si="0"/>
-        <v>6.4479999999999995E-4</v>
+      <c r="K13" s="1">
+        <f t="shared" si="0"/>
+        <v>6.2E-4</v>
       </c>
       <c r="L13" s="1">
         <f t="shared" si="1"/>
-        <v>7.9423296000000008E-7</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+        <v>9.086253353280438E-4</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>27.6</v>
       </c>
@@ -994,10 +1014,10 @@
         <v>1</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H14" s="3">
         <v>1.21E-2</v>
@@ -1008,19 +1028,19 @@
       <c r="J14" s="3">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="K14">
-        <f t="shared" si="0"/>
-        <v>6.2920000000000001E-4</v>
+      <c r="K14" s="1">
+        <f t="shared" si="0"/>
+        <v>6.0499999999999996E-4</v>
       </c>
       <c r="L14" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M14" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M14" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>27.6</v>
       </c>
@@ -1037,10 +1057,10 @@
         <v>2</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H15" s="3">
         <v>1.6899999999999998E-2</v>
@@ -1051,19 +1071,19 @@
       <c r="J15" s="3">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="K15">
-        <f t="shared" si="0"/>
-        <v>8.788E-4</v>
+      <c r="K15" s="1">
+        <f t="shared" si="0"/>
+        <v>8.4499999999999994E-4</v>
       </c>
       <c r="L15" s="1">
         <f t="shared" si="1"/>
-        <v>6.6771055999999974E-7</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+        <v>8.5204166564787189E-4</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>27.6</v>
       </c>
@@ -1080,10 +1100,10 @@
         <v>3</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H16" s="3">
         <v>9.4000000000000004E-3</v>
@@ -1094,19 +1114,19 @@
       <c r="J16" s="3">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="K16">
-        <f t="shared" si="0"/>
-        <v>4.8880000000000006E-4</v>
+      <c r="K16" s="1">
+        <f t="shared" si="0"/>
+        <v>4.6999999999999999E-4</v>
       </c>
       <c r="L16" s="1">
         <f t="shared" si="1"/>
-        <v>2.3210745600000001E-6</v>
-      </c>
-      <c r="M16" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+        <v>1.5294116515837063E-3</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>27.6</v>
       </c>
@@ -1123,10 +1143,10 @@
         <v>1</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H17" s="3">
         <v>1.1000000000000001E-3</v>
@@ -1137,19 +1157,19 @@
       <c r="J17" s="3">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="K17">
-        <f t="shared" si="0"/>
-        <v>5.7200000000000001E-5</v>
+      <c r="K17" s="1">
+        <f t="shared" si="0"/>
+        <v>5.5000000000000009E-5</v>
       </c>
       <c r="L17" s="1">
         <f t="shared" si="1"/>
-        <v>8.6728159999999979E-8</v>
-      </c>
-      <c r="M17" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+        <v>2.9491524206117252E-4</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>27.6</v>
       </c>
@@ -1166,10 +1186,10 @@
         <v>2</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H18" s="3">
         <v>3.2099999999999997E-2</v>
@@ -1180,19 +1200,19 @@
       <c r="J18" s="3">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="K18">
-        <f t="shared" si="0"/>
-        <v>1.6691999999999998E-3</v>
+      <c r="K18" s="1">
+        <f t="shared" si="0"/>
+        <v>1.6049999999999997E-3</v>
       </c>
       <c r="L18" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M18" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M18" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>27.6</v>
       </c>
@@ -1209,10 +1229,10 @@
         <v>3</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H19" s="3">
         <v>5.1400000000000001E-2</v>
@@ -1223,19 +1243,19 @@
       <c r="J19" s="3">
         <v>2.7000000000000001E-3</v>
       </c>
-      <c r="K19">
-        <f t="shared" si="0"/>
-        <v>2.6728000000000003E-3</v>
+      <c r="K19" s="1">
+        <f t="shared" si="0"/>
+        <v>2.5700000000000002E-3</v>
       </c>
       <c r="L19" s="1">
         <f t="shared" si="1"/>
-        <v>1.4614015999999847E-7</v>
-      </c>
-      <c r="M19" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+        <v>8.2770767786701101E-4</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>27.6</v>
       </c>
@@ -1252,10 +1272,10 @@
         <v>1</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H20" s="3">
         <v>5.7999999999999996E-3</v>
@@ -1266,19 +1286,19 @@
       <c r="J20" s="3">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="K20">
-        <f t="shared" si="0"/>
-        <v>3.0160000000000001E-4</v>
+      <c r="K20" s="1">
+        <f t="shared" si="0"/>
+        <v>2.9E-4</v>
       </c>
       <c r="L20" s="1">
         <f t="shared" si="1"/>
-        <v>1.5903743999999998E-7</v>
-      </c>
-      <c r="M20" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+        <v>4.0730823708832597E-4</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>27.6</v>
       </c>
@@ -1295,10 +1315,10 @@
         <v>2</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H21" s="3">
         <v>1.5100000000000001E-2</v>
@@ -1309,19 +1329,19 @@
       <c r="J21" s="3">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="K21">
-        <f t="shared" si="0"/>
-        <v>7.8520000000000011E-4</v>
+      <c r="K21" s="1">
+        <f t="shared" si="0"/>
+        <v>7.5500000000000003E-4</v>
       </c>
       <c r="L21" s="1">
         <f t="shared" si="1"/>
-        <v>5.9346095999999985E-7</v>
-      </c>
-      <c r="M21" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+        <v>7.9998437484740919E-4</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>27.6</v>
       </c>
@@ -1338,10 +1358,10 @@
         <v>3</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H22" s="3">
         <v>4.0899999999999999E-2</v>
@@ -1352,19 +1372,19 @@
       <c r="J22" s="3">
         <v>2.3E-3</v>
       </c>
-      <c r="K22">
-        <f t="shared" si="0"/>
-        <v>2.1267999999999999E-3</v>
+      <c r="K22" s="1">
+        <f t="shared" si="0"/>
+        <v>2.0449999999999999E-3</v>
       </c>
       <c r="L22" s="1">
         <f t="shared" si="1"/>
-        <v>7.667217600000008E-7</v>
-      </c>
-      <c r="M22" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+        <v>1.0526039141101463E-3</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>27.6</v>
       </c>
@@ -1381,10 +1401,10 @@
         <v>1</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H23" s="3">
         <v>2.5600000000000001E-2</v>
@@ -1395,19 +1415,19 @@
       <c r="J23" s="3">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="K23">
-        <f t="shared" si="0"/>
-        <v>1.3312000000000003E-3</v>
+      <c r="K23" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2800000000000001E-3</v>
       </c>
       <c r="L23" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M23" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M23" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>27.6</v>
       </c>
@@ -1424,10 +1444,10 @@
         <v>2</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H24" s="3">
         <v>3.5999999999999997E-2</v>
@@ -1438,19 +1458,19 @@
       <c r="J24" s="3">
         <v>1.9E-3</v>
       </c>
-      <c r="K24">
-        <f t="shared" si="0"/>
-        <v>1.872E-3</v>
+      <c r="K24" s="1">
+        <f t="shared" si="0"/>
+        <v>1.8E-3</v>
       </c>
       <c r="L24" s="1">
         <f t="shared" si="1"/>
-        <v>1.0561600000000033E-7</v>
-      </c>
-      <c r="M24" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+        <v>6.0827625302982218E-4</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>27.6</v>
       </c>
@@ -1467,10 +1487,10 @@
         <v>3</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H25" s="3">
         <v>5.1700000000000003E-2</v>
@@ -1481,19 +1501,19 @@
       <c r="J25" s="3">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="K25">
-        <f t="shared" si="0"/>
-        <v>2.6884000000000001E-3</v>
+      <c r="K25" s="1">
+        <f t="shared" si="0"/>
+        <v>2.5850000000000001E-3</v>
       </c>
       <c r="L25" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M25" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M25" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>27.6</v>
       </c>
@@ -1510,10 +1530,10 @@
         <v>1</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H26" s="3">
         <v>1.52E-2</v>
@@ -1524,19 +1544,19 @@
       <c r="J26" s="3">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="K26">
-        <f t="shared" si="0"/>
-        <v>7.9040000000000002E-4</v>
+      <c r="K26" s="1">
+        <f t="shared" si="0"/>
+        <v>7.5999999999999993E-4</v>
       </c>
       <c r="L26" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M26" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M26" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>27.6</v>
       </c>
@@ -1553,10 +1573,10 @@
         <v>2</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H27" s="3">
         <v>4.82E-2</v>
@@ -1567,19 +1587,19 @@
       <c r="J27" s="3">
         <v>2.3E-3</v>
       </c>
-      <c r="K27">
-        <f t="shared" si="0"/>
-        <v>2.5064000000000002E-3</v>
+      <c r="K27" s="1">
+        <f t="shared" si="0"/>
+        <v>2.4099999999999998E-3</v>
       </c>
       <c r="L27" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M27" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M27" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>27.6</v>
       </c>
@@ -1596,10 +1616,10 @@
         <v>3</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H28" s="3">
         <v>7.2599999999999998E-2</v>
@@ -1610,19 +1630,19 @@
       <c r="J28" s="3">
         <v>3.3E-3</v>
       </c>
-      <c r="K28">
-        <f t="shared" si="0"/>
-        <v>3.7752000000000003E-3</v>
+      <c r="K28" s="1">
+        <f t="shared" si="0"/>
+        <v>3.63E-3</v>
       </c>
       <c r="L28" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M28" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M28" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>27.6</v>
       </c>
@@ -1639,10 +1659,10 @@
         <v>1</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H29" s="3">
         <v>1.04E-2</v>
@@ -1653,19 +1673,19 @@
       <c r="J29" s="3">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="K29">
-        <f t="shared" si="0"/>
-        <v>5.4079999999999992E-4</v>
+      <c r="K29" s="1">
+        <f t="shared" si="0"/>
+        <v>5.1999999999999995E-4</v>
       </c>
       <c r="L29" s="1">
         <f t="shared" si="1"/>
-        <v>1.14753536E-6</v>
-      </c>
-      <c r="M29" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
+        <v>1.081480466767662E-3</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A30" s="3">
         <v>27.6</v>
       </c>
@@ -1682,10 +1702,10 @@
         <v>2</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H30" s="3">
         <v>3.1099999999999999E-2</v>
@@ -1696,19 +1716,19 @@
       <c r="J30" s="3">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="K30">
-        <f t="shared" si="0"/>
-        <v>1.6172000000000001E-3</v>
+      <c r="K30" s="1">
+        <f t="shared" si="0"/>
+        <v>1.555E-3</v>
       </c>
       <c r="L30" s="1">
         <f t="shared" si="1"/>
-        <v>1.7946641599999991E-6</v>
-      </c>
-      <c r="M30" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
+        <v>1.411373444556755E-3</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A31" s="3">
         <v>27.6</v>
       </c>
@@ -1725,10 +1745,10 @@
         <v>3</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H31" s="3">
         <v>0.1013</v>
@@ -1739,19 +1759,19 @@
       <c r="J31" s="3">
         <v>4.3E-3</v>
       </c>
-      <c r="K31">
-        <f t="shared" si="0"/>
-        <v>5.2675999999999999E-3</v>
+      <c r="K31" s="1">
+        <f t="shared" si="0"/>
+        <v>5.0649999999999992E-3</v>
       </c>
       <c r="L31" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M31" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M31" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A32" s="3">
         <v>27.6</v>
       </c>
@@ -1768,10 +1788,10 @@
         <v>1</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H32" s="3">
         <v>4.3099999999999999E-2</v>
@@ -1782,19 +1802,19 @@
       <c r="J32" s="3">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="K32">
-        <f t="shared" si="0"/>
-        <v>2.2412E-3</v>
+      <c r="K32" s="1">
+        <f t="shared" si="0"/>
+        <v>2.1549999999999998E-3</v>
       </c>
       <c r="L32" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M32" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M32" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A33" s="3">
         <v>27.6</v>
       </c>
@@ -1811,10 +1831,10 @@
         <v>2</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H33" s="3">
         <v>4.2200000000000001E-2</v>
@@ -1825,19 +1845,19 @@
       <c r="J33" s="3">
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="K33">
-        <f t="shared" si="0"/>
-        <v>2.1944000000000004E-3</v>
+      <c r="K33" s="1">
+        <f t="shared" si="0"/>
+        <v>2.1100000000000003E-3</v>
       </c>
       <c r="L33" s="1">
         <f t="shared" si="1"/>
-        <v>9.4460863999999685E-7</v>
-      </c>
-      <c r="M33" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.15">
+        <v>1.1436345570154818E-3</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A34" s="3">
         <v>27.6</v>
       </c>
@@ -1854,10 +1874,10 @@
         <v>3</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H34" s="3">
         <v>9.9900000000000003E-2</v>
@@ -1868,19 +1888,19 @@
       <c r="J34" s="3">
         <v>4.3E-3</v>
       </c>
-      <c r="K34">
-        <f t="shared" si="0"/>
-        <v>5.1948000000000003E-3</v>
+      <c r="K34" s="1">
+        <f t="shared" si="0"/>
+        <v>4.9950000000000003E-3</v>
       </c>
       <c r="L34" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M34" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M34" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A35" s="3">
         <v>27.6</v>
       </c>
@@ -1897,10 +1917,10 @@
         <v>1</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H35" s="3">
         <v>2.5700000000000001E-2</v>
@@ -1911,19 +1931,19 @@
       <c r="J35" s="3">
         <v>2.3E-3</v>
       </c>
-      <c r="K35">
-        <f t="shared" si="0"/>
-        <v>1.3364000000000002E-3</v>
+      <c r="K35" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2850000000000001E-3</v>
       </c>
       <c r="L35" s="1">
         <f t="shared" si="1"/>
-        <v>3.5040350399999999E-6</v>
-      </c>
-      <c r="M35" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.15">
+        <v>1.9075573385877551E-3</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A36" s="3">
         <v>27.6</v>
       </c>
@@ -1940,10 +1960,10 @@
         <v>2</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H36" s="3">
         <v>6.9900000000000004E-2</v>
@@ -1954,19 +1974,19 @@
       <c r="J36" s="3">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="K36">
-        <f t="shared" si="0"/>
-        <v>3.6348000000000001E-3</v>
+      <c r="K36" s="1">
+        <f t="shared" si="0"/>
+        <v>3.4950000000000003E-3</v>
       </c>
       <c r="L36" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M36" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M36" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A37" s="3">
         <v>27.6</v>
       </c>
@@ -1983,10 +2003,10 @@
         <v>3</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H37" s="3">
         <v>0.1706</v>
@@ -1997,19 +2017,19 @@
       <c r="J37" s="3">
         <v>7.1999999999999998E-3</v>
       </c>
-      <c r="K37">
-        <f t="shared" si="0"/>
-        <v>8.871200000000001E-3</v>
+      <c r="K37" s="1">
+        <f t="shared" si="0"/>
+        <v>8.5299999999999994E-3</v>
       </c>
       <c r="L37" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M37" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M37" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A38" s="3">
         <v>27.6</v>
       </c>
@@ -2026,10 +2046,10 @@
         <v>1</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H38" s="3">
         <v>7.1499999999999994E-2</v>
@@ -2040,19 +2060,19 @@
       <c r="J38" s="3">
         <v>4.3E-3</v>
       </c>
-      <c r="K38">
-        <f t="shared" si="0"/>
-        <v>3.7179999999999995E-3</v>
+      <c r="K38" s="1">
+        <f t="shared" si="0"/>
+        <v>3.5750000000000001E-3</v>
       </c>
       <c r="L38" s="1">
         <f t="shared" si="1"/>
-        <v>4.6664760000000045E-6</v>
-      </c>
-      <c r="M38" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.15">
+        <v>2.3894298483110987E-3</v>
+      </c>
+      <c r="M38" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A39" s="3">
         <v>27.6</v>
       </c>
@@ -2069,10 +2089,10 @@
         <v>2</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H39" s="3">
         <v>0.1094</v>
@@ -2083,19 +2103,19 @@
       <c r="J39" s="3">
         <v>4.7000000000000002E-3</v>
       </c>
-      <c r="K39">
-        <f t="shared" si="0"/>
-        <v>5.6888000000000008E-3</v>
+      <c r="K39" s="1">
+        <f t="shared" si="0"/>
+        <v>5.4699999999999992E-3</v>
       </c>
       <c r="L39" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M39" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M39" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A40" s="3">
         <v>27.6</v>
       </c>
@@ -2112,10 +2132,10 @@
         <v>3</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H40" s="3">
         <v>0.1696</v>
@@ -2126,19 +2146,19 @@
       <c r="J40" s="3">
         <v>7.1999999999999998E-3</v>
       </c>
-      <c r="K40">
-        <f t="shared" si="0"/>
-        <v>8.819200000000001E-3</v>
+      <c r="K40" s="1">
+        <f t="shared" si="0"/>
+        <v>8.4799999999999997E-3</v>
       </c>
       <c r="L40" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M40" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M40" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A41" s="3">
         <v>27.6</v>
       </c>
@@ -2155,10 +2175,10 @@
         <v>1</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H41" s="3">
         <v>2.7000000000000001E-3</v>
@@ -2169,19 +2189,19 @@
       <c r="J41" s="3">
         <v>5.3E-3</v>
       </c>
-      <c r="K41">
-        <f t="shared" si="0"/>
-        <v>1.404E-4</v>
+      <c r="K41" s="1">
+        <f t="shared" si="0"/>
+        <v>1.3500000000000003E-4</v>
       </c>
       <c r="L41" s="1">
         <f t="shared" si="1"/>
-        <v>2.8070287840000001E-5</v>
-      </c>
-      <c r="M41" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.15">
+        <v>5.2982803814067827E-3</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A42" s="3">
         <v>27.6</v>
       </c>
@@ -2198,10 +2218,10 @@
         <v>2</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H42" s="3">
         <v>7.1999999999999995E-2</v>
@@ -2212,19 +2232,19 @@
       <c r="J42" s="3">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="K42">
-        <f t="shared" si="0"/>
-        <v>3.7439999999999999E-3</v>
+      <c r="K42" s="1">
+        <f t="shared" si="0"/>
+        <v>3.5999999999999999E-3</v>
       </c>
       <c r="L42" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M42" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M42" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A43" s="3">
         <v>27.6</v>
       </c>
@@ -2241,10 +2261,10 @@
         <v>3</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H43" s="3">
         <v>0.21340000000000001</v>
@@ -2255,19 +2275,19 @@
       <c r="J43" s="3">
         <v>8.8000000000000005E-3</v>
       </c>
-      <c r="K43">
-        <f t="shared" si="0"/>
-        <v>1.10968E-2</v>
+      <c r="K43" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0669999999999999E-2</v>
       </c>
       <c r="L43" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M43" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M43" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A44" s="3">
         <v>27.6</v>
       </c>
@@ -2284,10 +2304,10 @@
         <v>1</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H44" s="3">
         <v>0.1774</v>
@@ -2298,19 +2318,19 @@
       <c r="J44" s="3">
         <v>1.06E-2</v>
       </c>
-      <c r="K44">
-        <f t="shared" si="0"/>
-        <v>9.2248E-3</v>
+      <c r="K44" s="1">
+        <f t="shared" si="0"/>
+        <v>8.8699999999999994E-3</v>
       </c>
       <c r="L44" s="1">
         <f t="shared" si="1"/>
-        <v>2.7263064959999998E-5</v>
-      </c>
-      <c r="M44" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.15">
+        <v>5.8037143279110505E-3</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A45" s="3">
         <v>27.6</v>
       </c>
@@ -2327,10 +2347,10 @@
         <v>2</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H45" s="3">
         <v>0.16500000000000001</v>
@@ -2341,19 +2361,19 @@
       <c r="J45" s="3">
         <v>6.6E-3</v>
       </c>
-      <c r="K45">
-        <f t="shared" si="0"/>
-        <v>8.5800000000000008E-3</v>
+      <c r="K45" s="1">
+        <f t="shared" si="0"/>
+        <v>8.2500000000000004E-3</v>
       </c>
       <c r="L45" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M45" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M45" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A46" s="3">
         <v>27.6</v>
       </c>
@@ -2370,10 +2390,10 @@
         <v>3</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H46" s="3">
         <v>0.51639999999999997</v>
@@ -2384,16 +2404,16 @@
       <c r="J46" s="3">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="K46">
-        <f t="shared" si="0"/>
-        <v>2.68528E-2</v>
+      <c r="K46" s="1">
+        <f t="shared" si="0"/>
+        <v>2.5819999999999999E-2</v>
       </c>
       <c r="L46" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M46" s="4" t="s">
-        <v>15</v>
+      <c r="M46" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
